--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 MS.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 MS.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Course</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>% of F's</t>
+  </si>
+  <si>
+    <t>% of Q Drop's</t>
   </si>
 </sst>
 </file>
@@ -75,12 +78,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -374,15 +376,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,6 +408,9 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
